--- a/data/trans_orig/P78DS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E387ACA9-C8A9-4A3D-9F9F-464638A348AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E026766-7C1F-4687-A619-410C0FB721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7C005E8C-9031-470D-92C6-D7B2C32AC36D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18E2E8AF-724F-4DF0-AFC4-49B18A7954A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="307">
   <si>
     <t>Población según si en los últimos 12 meses ha tenido algún retraso en el pago de recibos como la hipoteca, el alquiler, o suministros como la luz, el agua, impuestos / respuesta 1 en 2023 (Tasa respuesta: 94,89%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>94,82%</t>
+    <t>96,22%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>96,18%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>Otros</t>
@@ -113,853 +113,847 @@
     <t>0,99%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,43%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Actividades extraescolares</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Tasa de autónomos</t>
+  </si>
+  <si>
+    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Cuotas de seguros</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Cuotas de compras aplazadas</t>
+  </si>
+  <si>
+    <t>Alquiler</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Hipoteca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>Actividades extraescolares</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>Tasa de autónomos</t>
-  </si>
-  <si>
-    <t>Pagos de recibos de agua, gas, calefacción, electricidad, comunidad</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Cuotas de seguros</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>Cuotas de compras aplazadas</t>
-  </si>
-  <si>
-    <t>Alquiler</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>Hipoteca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1374,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C2AD70-A299-4D05-BBC0-370FADD8998E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE459B39-BB53-4B18-888D-FA8E0D74EDA6}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1759,7 +1753,7 @@
         <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1768,13 +1762,13 @@
         <v>559</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -1783,19 +1777,19 @@
         <v>1310</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1819,13 +1813,13 @@
         <v>1362</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1834,19 +1828,19 @@
         <v>1362</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1897,7 +1891,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -1921,13 +1915,13 @@
         <v>889</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -1936,19 +1930,19 @@
         <v>889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -2008,13 +2002,13 @@
         <v>99293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>229</v>
@@ -2023,13 +2017,13 @@
         <v>121149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -2038,18 +2032,18 @@
         <v>220442</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>10</v>
@@ -2061,13 +2055,13 @@
         <v>480628</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>870</v>
@@ -2076,13 +2070,13 @@
         <v>533283</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M15" s="7">
         <v>1413</v>
@@ -2091,13 +2085,13 @@
         <v>1013911</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,13 +2106,13 @@
         <v>8533</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2127,13 +2121,13 @@
         <v>11503</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -2142,13 +2136,13 @@
         <v>20036</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2169,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2184,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2199,7 +2193,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2214,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2229,13 +2223,13 @@
         <v>3593</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -2244,13 +2238,13 @@
         <v>3593</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2259,13 @@
         <v>28268</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2280,13 +2274,13 @@
         <v>36174</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -2295,13 +2289,13 @@
         <v>64442</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2310,13 @@
         <v>6883</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2331,13 +2325,13 @@
         <v>7073</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -2346,19 +2340,19 @@
         <v>13956</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="7">
         <v>0</v>
@@ -2373,7 +2367,7 @@
         <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2388,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2403,13 +2397,13 @@
         <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -2424,7 +2418,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2439,7 +2433,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2454,13 +2448,13 @@
         <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -2469,13 +2463,13 @@
         <v>3229</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2484,13 +2478,13 @@
         <v>6256</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2499,19 +2493,19 @@
         <v>9485</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7">
         <v>0</v>
@@ -2526,7 +2520,7 @@
         <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2535,13 +2529,13 @@
         <v>1501</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -2550,13 +2544,13 @@
         <v>1501</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2565,13 @@
         <v>527541</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H25" s="7">
         <v>963</v>
@@ -2586,13 +2580,13 @@
         <v>599383</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>1552</v>
@@ -2601,18 +2595,18 @@
         <v>1126924</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>10</v>
@@ -2624,13 +2618,13 @@
         <v>887924</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>1282</v>
@@ -2639,13 +2633,13 @@
         <v>873247</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>2103</v>
@@ -2654,13 +2648,13 @@
         <v>1761171</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2669,13 @@
         <v>18719</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -2711,7 +2705,7 @@
         <v>131</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,7 +2726,7 @@
         <v>22</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -2741,13 +2735,13 @@
         <v>785</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -2762,7 +2756,7 @@
         <v>21</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2780,10 +2774,10 @@
         <v>37</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2792,13 +2786,13 @@
         <v>3554</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2810,10 +2804,10 @@
         <v>37</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2891,7 @@
         <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>155</v>
@@ -2912,16 +2906,16 @@
         <v>40</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -2930,13 +2924,13 @@
         <v>2525</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -2945,13 +2939,13 @@
         <v>683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2963,16 +2957,16 @@
         <v>33</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
@@ -2981,13 +2975,13 @@
         <v>3294</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -2996,13 +2990,13 @@
         <v>1760</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3011,19 +3005,19 @@
         <v>5054</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7">
         <v>8</v>
@@ -3032,10 +3026,10 @@
         <v>9564</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>164</v>
@@ -3047,13 +3041,13 @@
         <v>9063</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -3062,19 +3056,19 @@
         <v>18627</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -3083,13 +3077,13 @@
         <v>6470</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3098,13 +3092,13 @@
         <v>8223</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="M35" s="7">
         <v>16</v>
@@ -3113,13 +3107,13 @@
         <v>14693</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3128,13 @@
         <v>1001769</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H36" s="7">
         <v>1443</v>
@@ -3149,13 +3143,13 @@
         <v>997736</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M36" s="7">
         <v>2366</v>
@@ -3164,18 +3158,18 @@
         <v>1999505</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>10</v>
@@ -3187,13 +3181,13 @@
         <v>602722</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H37" s="7">
         <v>898</v>
@@ -3202,13 +3196,13 @@
         <v>761461</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M37" s="7">
         <v>1462</v>
@@ -3217,13 +3211,13 @@
         <v>1364183</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3232,13 @@
         <v>24463</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H38" s="7">
         <v>17</v>
@@ -3253,13 +3247,13 @@
         <v>13177</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M38" s="7">
         <v>35</v>
@@ -3268,13 +3262,13 @@
         <v>37640</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3289,7 @@
         <v>22</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3310,7 +3304,7 @@
         <v>22</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3325,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3334,13 @@
         <v>2528</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3361,7 +3355,7 @@
         <v>22</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -3370,13 +3364,13 @@
         <v>2528</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3385,13 @@
         <v>28393</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H41" s="7">
         <v>37</v>
@@ -3406,13 +3400,13 @@
         <v>30572</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M41" s="7">
         <v>65</v>
@@ -3421,13 +3415,13 @@
         <v>58965</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3436,13 @@
         <v>7518</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -3457,13 +3451,13 @@
         <v>2801</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M42" s="7">
         <v>11</v>
@@ -3472,10 +3466,10 @@
         <v>10320</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>208</v>
@@ -3484,7 +3478,7 @@
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3499,7 +3493,7 @@
         <v>21</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="H43" s="7">
         <v>6</v>
@@ -3508,13 +3502,13 @@
         <v>4545</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -3523,19 +3517,19 @@
         <v>6515</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>2</v>
@@ -3550,7 +3544,7 @@
         <v>21</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -3559,13 +3553,13 @@
         <v>4939</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M44" s="7">
         <v>7</v>
@@ -3574,19 +3568,19 @@
         <v>10198</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" s="7">
         <v>9</v>
@@ -3595,13 +3589,13 @@
         <v>10762</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H45" s="7">
         <v>6</v>
@@ -3610,13 +3604,13 @@
         <v>2303</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -3625,19 +3619,19 @@
         <v>13065</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="7">
         <v>6</v>
@@ -3646,10 +3640,10 @@
         <v>5929</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>222</v>
@@ -3664,10 +3658,10 @@
         <v>223</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -3676,13 +3670,13 @@
         <v>11184</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3691,13 @@
         <v>689544</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H47" s="7">
         <v>980</v>
@@ -3712,13 +3706,13 @@
         <v>825052</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M47" s="7">
         <v>1617</v>
@@ -3727,18 +3721,18 @@
         <v>1514596</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>10</v>
@@ -3750,13 +3744,13 @@
         <v>765163</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H48" s="7">
         <v>1251</v>
@@ -3765,13 +3759,13 @@
         <v>890097</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M48" s="7">
         <v>2058</v>
@@ -3780,13 +3774,13 @@
         <v>1655259</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3795,13 @@
         <v>23433</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H49" s="7">
         <v>33</v>
@@ -3816,13 +3810,13 @@
         <v>21618</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M49" s="7">
         <v>54</v>
@@ -3831,13 +3825,13 @@
         <v>45051</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3873,7 +3867,7 @@
         <v>22</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3888,7 +3882,7 @@
         <v>22</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3897,13 @@
         <v>1182</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -3918,13 +3912,13 @@
         <v>716</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="M51" s="7">
         <v>2</v>
@@ -3933,13 +3927,13 @@
         <v>1898</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3948,13 @@
         <v>73760</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H52" s="7">
         <v>126</v>
@@ -3969,13 +3963,13 @@
         <v>106184</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M52" s="7">
         <v>205</v>
@@ -3984,13 +3978,13 @@
         <v>179944</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3999,13 @@
         <v>8087</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H53" s="7">
         <v>10</v>
@@ -4023,10 +4017,10 @@
         <v>223</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M53" s="7">
         <v>17</v>
@@ -4035,19 +4029,19 @@
         <v>14923</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>153</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
@@ -4056,13 +4050,13 @@
         <v>1072</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H54" s="7">
         <v>2</v>
@@ -4071,13 +4065,13 @@
         <v>2533</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -4086,19 +4080,19 @@
         <v>3605</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>135</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="7">
         <v>0</v>
@@ -4113,7 +4107,7 @@
         <v>22</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H55" s="7">
         <v>2</v>
@@ -4122,13 +4116,13 @@
         <v>1436</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="M55" s="7">
         <v>2</v>
@@ -4137,19 +4131,19 @@
         <v>1436</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="7">
         <v>22</v>
@@ -4158,13 +4152,13 @@
         <v>21218</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="H56" s="7">
         <v>29</v>
@@ -4173,13 +4167,13 @@
         <v>26243</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M56" s="7">
         <v>51</v>
@@ -4188,19 +4182,19 @@
         <v>47460</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="7">
         <v>15</v>
@@ -4209,13 +4203,13 @@
         <v>17978</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>264</v>
+        <v>211</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H57" s="7">
         <v>11</v>
@@ -4224,13 +4218,13 @@
         <v>9226</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="M57" s="7">
         <v>26</v>
@@ -4239,13 +4233,13 @@
         <v>27204</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>269</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4254,13 @@
         <v>911893</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H58" s="7">
         <v>1465</v>
@@ -4275,13 +4269,13 @@
         <v>1064888</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M58" s="7">
         <v>2418</v>
@@ -4290,13 +4284,13 @@
         <v>1976781</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,7 +4319,7 @@
         <v>4523</v>
       </c>
       <c r="I59" s="7">
-        <v>3174608</v>
+        <v>3174609</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>273</v>
@@ -4334,7 +4328,7 @@
         <v>274</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="M59" s="7">
         <v>7370</v>
@@ -4343,13 +4337,13 @@
         <v>6009429</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P59" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="Q59" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4358,13 @@
         <v>75149</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="H60" s="7">
         <v>101</v>
@@ -4379,13 +4373,13 @@
         <v>71083</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M60" s="7">
         <v>163</v>
@@ -4394,13 +4388,13 @@
         <v>146231</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>284</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4415,7 @@
         <v>22</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4430,13 +4424,13 @@
         <v>785</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -4445,13 +4439,13 @@
         <v>785</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4460,13 @@
         <v>7171</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -4481,13 +4475,13 @@
         <v>7864</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>96</v>
+        <v>284</v>
       </c>
       <c r="M62" s="7">
         <v>16</v>
@@ -4496,13 +4490,13 @@
         <v>15035</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4511,13 @@
         <v>193796</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H63" s="7">
         <v>307</v>
@@ -4532,13 +4526,13 @@
         <v>241859</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M63" s="7">
         <v>504</v>
@@ -4547,13 +4541,13 @@
         <v>435655</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4562,13 @@
         <v>29835</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="H64" s="7">
         <v>34</v>
@@ -4583,13 +4577,13 @@
         <v>25792</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M64" s="7">
         <v>61</v>
@@ -4598,19 +4592,19 @@
         <v>55628</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" s="7">
         <v>4</v>
@@ -4619,13 +4613,13 @@
         <v>5567</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>135</v>
+        <v>281</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="H65" s="7">
         <v>10</v>
@@ -4634,13 +4628,13 @@
         <v>9122</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="M65" s="7">
         <v>14</v>
@@ -4649,19 +4643,19 @@
         <v>14688</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C66" s="7">
         <v>4</v>
@@ -4670,13 +4664,13 @@
         <v>8553</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H66" s="7">
         <v>9</v>
@@ -4685,13 +4679,13 @@
         <v>8135</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M66" s="7">
         <v>13</v>
@@ -4700,19 +4694,19 @@
         <v>16688</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>255</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C67" s="7">
         <v>42</v>
@@ -4721,13 +4715,13 @@
         <v>44773</v>
       </c>
       <c r="E67" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H67" s="7">
         <v>55</v>
@@ -4736,13 +4730,13 @@
         <v>44754</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="M67" s="7">
         <v>97</v>
@@ -4751,19 +4745,19 @@
         <v>89527</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="7">
         <v>27</v>
@@ -4772,13 +4766,13 @@
         <v>30377</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="H68" s="7">
         <v>30</v>
@@ -4787,13 +4781,13 @@
         <v>24205</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>306</v>
+        <v>125</v>
       </c>
       <c r="M68" s="7">
         <v>57</v>
@@ -4802,13 +4796,13 @@
         <v>54581</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,28 +4817,28 @@
         <v>3230041</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H69" s="7">
         <v>5080</v>
       </c>
       <c r="I69" s="7">
-        <v>3608207</v>
+        <v>3608208</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M69" s="7">
         <v>8296</v>
@@ -4853,18 +4847,18 @@
         <v>6838248</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P78DS1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P78DS1_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E026766-7C1F-4687-A619-410C0FB721AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75125B33-3D5A-4CDE-B7A2-92EE78C94404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18E2E8AF-724F-4DF0-AFC4-49B18A7954A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8933B218-EBE5-47FA-8C22-C8656AE78ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ninguna</t>
@@ -212,7 +212,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -380,7 +380,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,64%</t>
@@ -557,7 +557,7 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,41%</t>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE459B39-BB53-4B18-888D-FA8E0D74EDA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D79F86C-6600-4937-A680-D2F70E4DA192}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
